--- a/src/main/webapp/resources/upload/h.xlsx
+++ b/src/main/webapp/resources/upload/h.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEAFD29-B13C-482D-912B-4ACFEDC86E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705E112-5744-468C-9BA0-2E1438045C19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>用户名</t>
   </si>
@@ -35,11 +35,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qwe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>mm4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xm4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xm5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" activeCellId="1" sqref="F5 K6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -394,11 +410,11 @@
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -408,14 +424,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -423,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
